--- a/data/1c.xlsx
+++ b/data/1c.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\2021 Fall\EDLD654 - Machine Learning\text-analysis-of-conflicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33752D-7EF6-468A-A4EF-FDF126B5B162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD45D6-8DAE-4198-830A-265D83D4AE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$412</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="432">
   <si>
     <t>condition</t>
   </si>
@@ -172,9 +172,6 @@
     <t>My ex girlfriend and I separated and that was a memorable conflict. We grew apart due to not spending enough time with one another. I caught her texting other guys and I confronted her about it. She lied, we argued back and forth. I removed myself from the situation. However, she continued to practically stalk and spam call me from various numbers and methods. I had to block her from everything. Still to this day, I get private calls once in a while, I answer and don't hear anything but breathing.</t>
   </si>
   <si>
-    <t>Black or African American,White</t>
-  </si>
-  <si>
     <t xml:space="preserve">At one of my previous jobs, we had a change in management. This manager was very inefficient, understandably because he was a new manager and was a young guy. Things started to go awry. I had issues with the hours he was giving. He was allowing certain employees to influence him to give them hours, and things started to fall apart at work. After confronting him about the situation, he promised me things would be better. Things continued to get worse, so I eventually searched for a new job. </t>
   </si>
   <si>
@@ -247,15 +244,9 @@
     <t>When I was 19, I had a friend named Ayden. We both had computers we build ourselves, but Ayden's was a little older. My dad had a computer with a nice graphics card he wasn't taking advantage of, so I asked him if I could lend it to Ayden. Of course, this was out of kindness- he didn't compensate me. When I asked for the card back a year or so later, he told me that I had ""given"" it to him. I don't know why he didn't back down, but we wound up going our separate ways after that conflict.</t>
   </si>
   <si>
-    <t>Hispanic/Latinx,White</t>
-  </si>
-  <si>
     <t>A family member kept forgetting to turn the stovetop burner off, and it would run for hours at times. I kept telling this family member what happened, and to pay attention, but they refused to admit they were leaving it on. They would regularly claim that perhaps I turned it on and left it on to create an argument. They would also deny the possibility that they could have forgotten. This went on for quite some time, much to my concern about our place burning down. I would explain that I didn't have the energy to argue, and that I would not willingly ""set up"" this scenario to get in an argument. After a few scary instances, this person must have realized it was a dangerous habit of theirs, and the issue resolved itself organically. The conflict was fairly intense, not only because of the consequences of a fire burning the place down, but also beacuse of the denial and resistance to accept the possiblity that they were at fault. That would be the fuel for the fire so-to-speak.</t>
   </si>
   <si>
-    <t>Middle Eastern or North African,White</t>
-  </si>
-  <si>
     <t>I got a promotion that a coworker and a friend at work was also veiling for. All of a sudden things are getting awkward between us and we could not stand the sight of each other. Obviously i really wanted to keep the friendship going irrespective of the situation we are in, but there is not a room for us to have any sort of conversation not to talk of even being in  speaking terms with me outside the office. I decided to approach him and confront the situation head on because i was quite tired of the way the whole situation was, but he was hostile towards me and took the whole conversation through a moment that was quite heated and resulted to a little bit of shoving. After a couple of rounds we both cooled off and at least i was glad i cleared the air as regards the way things are getting affected due to me getting a promotion he was also gunning for.</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t xml:space="preserve">I had a serious fight with my brother over politics. The fight was over the 2018 midterm election, and it got very heated. Even though we were very argumentative, we were not nasty (or not like harmfully so) and continue to have a good relationship. </t>
   </si>
   <si>
-    <t>Hispanic/Latinx,Middle Eastern or North African</t>
-  </si>
-  <si>
     <t>A memorable conflict that I had with another person is the one time me and my friend's father went to a restaurant together. We were eating food and right when we were about to finish the food the server gave our table the bill. I looked at the bill and at the same time my friend's father took the bill away and said that he will cover the cost. Of course, I could not let that happen so I told him that it was my treat. He did not want me to treat us to dinner so he said he'll cover it and I can pay for it next time. I did not want to accept that so I told him that he should save his money for something else. He did not want that. Eventually, I was able to pay the bill.</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
     <t>The other person was my Fiancee. We had an explosive argument that I do not remember the topic of. We were in the car on the way home from work. The argument was enough for us to stop talking to each other for a few hours. After both having long days at work, both of our patience were awfully thin and consequently we both snippy with each other. Obviously adding home stress to work stress resulted in misery. The inner turmoil on both ends was unbearable. We both eventually felt bad enough to want to talk again. We sat on the couch and talked for a few hours. In the end we both worked it out amicably.</t>
   </si>
   <si>
-    <t>Asian,White</t>
-  </si>
-  <si>
     <t xml:space="preserve">Back in high school, I fought often with a girl we'll call Lexi. We were on and off friends, with very intense friendships followed by very intense fights. The summer after our freshman year of high school, I accidentally jumped in my friend's pool with my phone still in my pocket and my phone broke. Her birthday was the next day, and because my phone was broken, I wasn't able to text her to wish her a happy birthday. She got really upset me for not texting her on her birthday, and we were on bad terms for a while. Eventually I'm sure we made up, but I don't remember how or why. </t>
   </si>
   <si>
@@ -442,9 +427,6 @@
     <t>Got into it with a co worker, even though we're in the same department, neither of us are bosses. We need to work together to get the same goals attained. However, my co worker consistently looks for the easy way out of doing things. This is not helpful in a co working relationship. We still have conflict to this day due to him not pulling his weight,</t>
   </si>
   <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
     <t>I had a conflict with a friend of mine over who should have bought a house or not. One day, my friend and I met with an estate management agency to talk about the price range of some houses I sent to the agency online. After the meeting, the agency agreed to collect a certain amount of money for a particular house. My friend reached out to the agency afterwards and purchased the same house I was going to pay me.</t>
   </si>
   <si>
@@ -487,9 +469,6 @@
     <t>In a conversation with my sister, she made a passive aggressive comment to me. I responded by asking what she meant by that. She proceeded to backtrack and try to suggest she didn't mean anything by it. I continued to push her because I thought it was disrespectful to communicate indirectly like that and then lie about it. I became emotionally charged, and she began to shrink back. The more I tried to get clarity from her, the more she pulled away. She then walked away from the conversation. She suggested that I was breaking a boundary by pushing her to own up to what she had done. I refused to concede so she walked away. There has been no resolution since.</t>
   </si>
   <si>
-    <t>American Indian or Alaska Native,White</t>
-  </si>
-  <si>
     <t>I had conflict with an artistic colaborator. In previous projects he was my supervisor. When I was give a project that gave me the artistic final say it disrupted our previous dynamic. He would undermine my decision making and question my choices. His stress levels led him to react to our disagreements by snapping or yelling at me. This was extremly distressing and would lead to unproffesional interactions. I often ended up in tears. In order to stand up for myself I had to be much more aggresive than I prefer to be. This dynamic affected our non worki friendship and we stopped socializing with each other. We no longer work together</t>
   </si>
   <si>
@@ -550,9 +529,6 @@
     <t>I had a friend who was extremely invalidating to me. She often would talk about herself and her own issues, but would shut me down if I ever tried to talk about something related to my life. It got to the point where any time I brought up something that she didn't like, or an issue in our friendship, I would be ignored. She was a part of my friend group and very well liked, so when I finally told her that the friendship was toxic and I no longer wished to continue it, her response was to doctor screenshots and send them out to our friendgroup as a result. With many of those friends, I was able to resolve the issues they had, but a few others actually left me over the incident. What I find interesting is that it turns out that for a while she and another friend had been just going out of their way to talk shit about me behind my back. It got to the point where so many lies were spread about me that I just had to cut off about half of the friend group as a result. Its unfortunate, but that's what I needed to do in order to ensure that I'd come out of it okay. I still, to this day, get screenshots from people of her posting nasty statuses and subtweets about me. Its been a month now, and they're still going. Fortunately, I've been able to set the boundary that I want no discussion about her, so she's pretty much entirely out of my life now.</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">The conflict that I remember was with my ex boyfriend. He was very insecure about me going out without him. He was a year younger than me and it was going to be my 21st birthday soon. My mom and grandmother asked me if I had any plans for celebrating. He was there in the room with us and I mentioned that I wanted to go to a club in D.C. with some friends. He immediately got very upset with me and told me it wasn't okay for me to go out for my 21st birthday without him, since he was younger he couldn't get in. We fought for hours and a few weeks later broke up. </t>
   </si>
   <si>
@@ -946,9 +922,6 @@
     <t xml:space="preserve">I had an argument with my friend and his, then, girlfriend about his inappropriate reaction to something negative that happened to his girlfriend. She was telling me what happened to her in front of him. She also told him how disappointed she was with him. He got pretty defensive about it, and I know he felt like his feelings weren't being heard and thought that I was on her side more than his. I told him that this situation isn't about him, but about her. I also expressed that she was feeling very vulnerable after what happened, and that it's important for her to feel safe. Later, he proceeded to call his friend on the phone to get his input on this, which made me quite mad and really stressed his girlfriend out. His girlfriend stated several times that she was tired and didn't want to talk about this, but he kept pushing. I told him and his friend, that this bad thing that happened, happened to her, and so it's her right to want to talk about it or not talk about it. My friend was feeling attacked and unheard. So, he went outside to talk on the phone with his friend. </t>
   </si>
   <si>
-    <t>Asian,Black or African American</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ive had arguments with my boss over the correct procedure while at work.  We both can have different opinions about the best way to accomplish a task.  I think my boss felt frustrated that I wouldnt do just do as he asked.  He probably felt that as an employee I should just do as he said.  But i sometimes felt that just doing it his way would not have a desirable end result.  Often, despite my protests we would just end up doing it his way anyways, because he was the boss and had the final word.  It strained our relationship over the years.  It also played a part in why I decided to leave to another company.  I dont think he ever really saw things from my perspective, and likely didnt understand why I left.  But, looking back, I still think I was doing the right thing for both the company and the customers we were serving.  </t>
   </si>
   <si>
@@ -1336,9 +1309,6 @@
     <t>participant</t>
   </si>
   <si>
-    <t>race_other</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -1346,6 +1316,9 @@
   </si>
   <si>
     <t>non-binary</t>
+  </si>
+  <si>
+    <t>Multiracial</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,6 +1370,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,22 +1673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="4" max="9" width="11.5546875" style="1"/>
+    <col min="4" max="8" width="11.5546875" style="1"/>
+    <col min="9" max="9" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1718,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1732,14 +1712,11 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1762,13 +1739,13 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1791,13 +1768,13 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1820,13 +1797,13 @@
         <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1849,13 +1826,13 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1878,13 +1855,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1907,13 +1884,13 @@
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1936,13 +1913,13 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1965,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1994,13 +1971,13 @@
         <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2023,13 +2000,13 @@
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2052,13 +2029,13 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2081,13 +2058,13 @@
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2110,13 +2087,13 @@
         <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2139,13 +2116,13 @@
         <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2168,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -2197,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
@@ -2226,7 +2203,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>21</v>
@@ -2255,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -2284,7 +2261,7 @@
         <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>10</v>
@@ -2313,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>10</v>
@@ -2342,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>10</v>
@@ -2371,7 +2348,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>10</v>
@@ -2400,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>10</v>
@@ -2429,7 +2406,7 @@
         <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>10</v>
@@ -2458,7 +2435,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>10</v>
@@ -2487,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>21</v>
@@ -2516,7 +2493,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
@@ -2545,7 +2522,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>10</v>
@@ -2574,7 +2551,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>10</v>
@@ -2603,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>10</v>
@@ -2632,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>10</v>
@@ -2661,7 +2638,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>10</v>
@@ -2690,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2719,7 +2696,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>10</v>
@@ -2748,10 +2725,10 @@
         <v>23</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>429</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2762,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
@@ -2777,10 +2754,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>49</v>
+        <v>429</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2791,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1">
         <v>7</v>
@@ -2806,7 +2783,7 @@
         <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
@@ -2820,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>6</v>
@@ -2835,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>10</v>
@@ -2849,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
@@ -2864,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>10</v>
@@ -2878,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -2893,7 +2870,7 @@
         <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>13</v>
@@ -2907,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
@@ -2922,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>10</v>
@@ -2936,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1">
         <v>7</v>
@@ -2951,7 +2928,7 @@
         <v>55</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>29</v>
@@ -2965,7 +2942,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -2980,7 +2957,7 @@
         <v>33</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>10</v>
@@ -2994,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
@@ -3009,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>10</v>
@@ -3023,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3038,7 +3015,7 @@
         <v>48</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>10</v>
@@ -3052,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
@@ -3067,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>10</v>
@@ -3081,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>7</v>
@@ -3096,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>10</v>
@@ -3110,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
         <v>6</v>
@@ -3125,7 +3102,7 @@
         <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>10</v>
@@ -3139,7 +3116,7 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1">
         <v>7</v>
@@ -3154,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>13</v>
@@ -3168,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>7</v>
@@ -3183,7 +3160,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>10</v>
@@ -3197,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1">
         <v>7</v>
@@ -3212,7 +3189,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>29</v>
@@ -3226,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -3241,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>10</v>
@@ -3255,7 +3232,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1">
         <v>7</v>
@@ -3270,7 +3247,7 @@
         <v>27</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>10</v>
@@ -3284,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1">
         <v>6</v>
@@ -3299,7 +3276,7 @@
         <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>10</v>
@@ -3313,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>7</v>
@@ -3328,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>13</v>
@@ -3342,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -3357,7 +3334,7 @@
         <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>10</v>
@@ -3371,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>4</v>
@@ -3386,7 +3363,7 @@
         <v>21</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>10</v>
@@ -3400,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1">
         <v>7</v>
@@ -3415,7 +3392,7 @@
         <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>13</v>
@@ -3429,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1">
         <v>6</v>
@@ -3444,10 +3421,10 @@
         <v>24</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3458,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1">
         <v>7</v>
@@ -3473,10 +3450,10 @@
         <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>76</v>
+        <v>429</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3487,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1">
         <v>6</v>
@@ -3502,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>13</v>
@@ -3516,7 +3493,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1">
         <v>7</v>
@@ -3531,7 +3508,7 @@
         <v>42</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>10</v>
@@ -3545,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
@@ -3560,7 +3537,7 @@
         <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>10</v>
@@ -3574,7 +3551,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
@@ -3589,7 +3566,7 @@
         <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>10</v>
@@ -3603,7 +3580,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1">
         <v>6</v>
@@ -3615,7 +3592,7 @@
         <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>10</v>
@@ -3629,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
         <v>7</v>
@@ -3644,7 +3621,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>10</v>
@@ -3658,7 +3635,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1">
         <v>6</v>
@@ -3673,7 +3650,7 @@
         <v>50</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>10</v>
@@ -3687,7 +3664,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1">
         <v>6</v>
@@ -3702,7 +3679,7 @@
         <v>40</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>10</v>
@@ -3716,7 +3693,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1">
         <v>6</v>
@@ -3731,7 +3708,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>10</v>
@@ -3745,7 +3722,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -3760,7 +3737,7 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>21</v>
@@ -3774,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -3789,7 +3766,7 @@
         <v>31</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>10</v>
@@ -3803,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73" s="1">
         <v>6</v>
@@ -3818,7 +3795,7 @@
         <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>13</v>
@@ -3832,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>7</v>
@@ -3847,7 +3824,7 @@
         <v>32</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>21</v>
@@ -3861,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1">
         <v>6</v>
@@ -3876,10 +3853,10 @@
         <v>29</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3890,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1">
         <v>7</v>
@@ -3905,10 +3882,10 @@
         <v>29</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3919,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1">
         <v>7</v>
@@ -3931,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>10</v>
@@ -3945,7 +3922,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1">
         <v>7</v>
@@ -3960,7 +3937,7 @@
         <v>50</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>10</v>
@@ -3974,7 +3951,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -3989,7 +3966,7 @@
         <v>50</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>10</v>
@@ -4003,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1">
         <v>6</v>
@@ -4018,7 +3995,7 @@
         <v>25</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>21</v>
@@ -4032,7 +4009,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -4047,7 +4024,7 @@
         <v>23</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>15</v>
@@ -4061,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1">
         <v>4</v>
@@ -4076,7 +4053,7 @@
         <v>31</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>10</v>
@@ -4090,7 +4067,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1">
         <v>6</v>
@@ -4105,7 +4082,7 @@
         <v>27</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>13</v>
@@ -4119,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -4134,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>15</v>
@@ -4148,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1">
         <v>7</v>
@@ -4163,7 +4140,7 @@
         <v>30</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>13</v>
@@ -4177,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1">
         <v>7</v>
@@ -4192,7 +4169,7 @@
         <v>40</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>10</v>
@@ -4206,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1">
         <v>7</v>
@@ -4221,7 +4198,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>21</v>
@@ -4235,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1">
         <v>7</v>
@@ -4250,10 +4227,10 @@
         <v>22</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>104</v>
+        <v>428</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4264,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1">
         <v>7</v>
@@ -4279,7 +4256,7 @@
         <v>18</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>21</v>
@@ -4293,7 +4270,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -4308,7 +4285,7 @@
         <v>26</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>10</v>
@@ -4322,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D91" s="1">
         <v>7</v>
@@ -4337,10 +4314,10 @@
         <v>19</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4351,7 +4328,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
@@ -4366,7 +4343,7 @@
         <v>26</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>10</v>
@@ -4380,7 +4357,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1">
         <v>5</v>
@@ -4395,7 +4372,7 @@
         <v>28</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>10</v>
@@ -4409,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -4424,10 +4401,10 @@
         <v>19</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4438,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1">
         <v>7</v>
@@ -4453,7 +4430,7 @@
         <v>35</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>10</v>
@@ -4467,7 +4444,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
@@ -4482,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>21</v>
@@ -4496,7 +4473,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
         <v>7</v>
@@ -4511,7 +4488,7 @@
         <v>35</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>10</v>
@@ -4525,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>4</v>
@@ -4540,10 +4517,10 @@
         <v>21</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>115</v>
+        <v>429</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -4554,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1">
         <v>6</v>
@@ -4569,7 +4546,7 @@
         <v>24</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>10</v>
@@ -4583,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -4598,7 +4575,7 @@
         <v>30</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>10</v>
@@ -4612,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -4627,7 +4604,7 @@
         <v>21</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>15</v>
@@ -4641,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1">
         <v>6</v>
@@ -4656,7 +4633,7 @@
         <v>30</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>10</v>
@@ -4670,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -4685,7 +4662,7 @@
         <v>43</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>10</v>
@@ -4699,7 +4676,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -4714,7 +4691,7 @@
         <v>30</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>13</v>
@@ -4728,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -4740,7 +4717,7 @@
         <v>7</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
@@ -4754,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D106" s="1">
         <v>6</v>
@@ -4769,7 +4746,7 @@
         <v>27</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>10</v>
@@ -4783,7 +4760,7 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1">
         <v>6</v>
@@ -4798,7 +4775,7 @@
         <v>33</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>10</v>
@@ -4812,7 +4789,7 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -4827,7 +4804,7 @@
         <v>35</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>13</v>
@@ -4841,7 +4818,7 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D109" s="1">
         <v>6</v>
@@ -4856,7 +4833,7 @@
         <v>36</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>13</v>
@@ -4870,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
@@ -4885,7 +4862,7 @@
         <v>21</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>10</v>
@@ -4899,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D111" s="1">
         <v>3</v>
@@ -4914,7 +4891,7 @@
         <v>30</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>13</v>
@@ -4928,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1">
         <v>7</v>
@@ -4943,7 +4920,7 @@
         <v>30</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>13</v>
@@ -4957,7 +4934,7 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1">
         <v>6</v>
@@ -4972,7 +4949,7 @@
         <v>32</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>13</v>
@@ -4986,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1">
         <v>6</v>
@@ -5001,7 +4978,7 @@
         <v>34</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>10</v>
@@ -5015,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D115" s="1">
         <v>6</v>
@@ -5030,7 +5007,7 @@
         <v>27</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>10</v>
@@ -5044,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -5059,7 +5036,7 @@
         <v>30</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>10</v>
@@ -5073,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D117" s="1">
         <v>6</v>
@@ -5088,7 +5065,7 @@
         <v>36</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>13</v>
@@ -5102,7 +5079,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -5117,7 +5094,7 @@
         <v>22</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>10</v>
@@ -5131,7 +5108,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -5146,7 +5123,7 @@
         <v>29</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>10</v>
@@ -5160,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D120" s="1">
         <v>3</v>
@@ -5175,7 +5152,7 @@
         <v>37</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>13</v>
@@ -5189,7 +5166,7 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -5204,10 +5181,7 @@
         <v>48</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5218,7 +5192,7 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
@@ -5233,7 +5207,7 @@
         <v>37</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>10</v>
@@ -5247,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D123" s="1">
         <v>6</v>
@@ -5262,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>13</v>
@@ -5276,7 +5250,7 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
@@ -5291,7 +5265,7 @@
         <v>36</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>10</v>
@@ -5305,7 +5279,7 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D125" s="1">
         <v>5</v>
@@ -5320,7 +5294,7 @@
         <v>33</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>13</v>
@@ -5334,7 +5308,7 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -5349,7 +5323,7 @@
         <v>18</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>15</v>
@@ -5363,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D127" s="1">
         <v>7</v>
@@ -5378,7 +5352,7 @@
         <v>32</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>13</v>
@@ -5392,7 +5366,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1">
         <v>6</v>
@@ -5407,7 +5381,7 @@
         <v>23</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>13</v>
@@ -5421,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D129" s="1">
         <v>7</v>
@@ -5436,7 +5410,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>13</v>
@@ -5450,7 +5424,7 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D130" s="1">
         <v>7</v>
@@ -5465,7 +5439,7 @@
         <v>37</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>10</v>
@@ -5479,7 +5453,7 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D131" s="1">
         <v>4</v>
@@ -5494,7 +5468,7 @@
         <v>30</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>13</v>
@@ -5508,7 +5482,7 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D132" s="1">
         <v>3</v>
@@ -5523,7 +5497,7 @@
         <v>23</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>10</v>
@@ -5537,7 +5511,7 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D133" s="1">
         <v>7</v>
@@ -5552,7 +5526,7 @@
         <v>30</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>13</v>
@@ -5566,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1">
         <v>6</v>
@@ -5581,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>10</v>
@@ -5595,7 +5569,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1">
         <v>5</v>
@@ -5610,10 +5584,10 @@
         <v>32</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,7 +5598,7 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -5639,7 +5613,7 @@
         <v>42</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>10</v>
@@ -5653,7 +5627,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D137" s="1">
         <v>7</v>
@@ -5668,7 +5642,7 @@
         <v>47</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>10</v>
@@ -5682,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D138" s="1">
         <v>7</v>
@@ -5697,7 +5671,7 @@
         <v>26</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>15</v>
@@ -5711,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D139" s="1">
         <v>6</v>
@@ -5726,7 +5700,7 @@
         <v>53</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>10</v>
@@ -5740,7 +5714,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D140" s="1">
         <v>7</v>
@@ -5755,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>10</v>
@@ -5769,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D141" s="1">
         <v>7</v>
@@ -5784,7 +5758,7 @@
         <v>22</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>15</v>
@@ -5798,7 +5772,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D142" s="1">
         <v>3</v>
@@ -5813,7 +5787,7 @@
         <v>40</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>10</v>
@@ -5827,7 +5801,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D143" s="1">
         <v>7</v>
@@ -5842,7 +5816,7 @@
         <v>26</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>15</v>
@@ -5856,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D144" s="1">
         <v>6</v>
@@ -5871,7 +5845,7 @@
         <v>23</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>10</v>
@@ -5885,7 +5859,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D145" s="1">
         <v>4</v>
@@ -5900,7 +5874,7 @@
         <v>28</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>10</v>
@@ -5914,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D146" s="1">
         <v>7</v>
@@ -5929,7 +5903,7 @@
         <v>29</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>13</v>
@@ -5943,7 +5917,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D147" s="1">
         <v>5</v>
@@ -5958,7 +5932,7 @@
         <v>40</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>10</v>
@@ -5972,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D148" s="1">
         <v>7</v>
@@ -5987,7 +5961,7 @@
         <v>41</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>10</v>
@@ -6001,7 +5975,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D149" s="1">
         <v>6</v>
@@ -6016,7 +5990,7 @@
         <v>50</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>10</v>
@@ -6030,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D150" s="1">
         <v>7</v>
@@ -6045,7 +6019,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>10</v>
@@ -6059,7 +6033,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1">
         <v>7</v>
@@ -6074,7 +6048,7 @@
         <v>34</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>13</v>
@@ -6088,7 +6062,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1">
         <v>7</v>
@@ -6103,7 +6077,7 @@
         <v>34</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>13</v>
@@ -6117,7 +6091,7 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
@@ -6132,7 +6106,7 @@
         <v>18</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>15</v>
@@ -6146,7 +6120,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
@@ -6161,7 +6135,7 @@
         <v>20</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>10</v>
@@ -6175,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D155" s="1">
         <v>5</v>
@@ -6190,7 +6164,7 @@
         <v>23</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6201,7 +6175,7 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D156" s="1">
         <v>6</v>
@@ -6216,7 +6190,7 @@
         <v>23</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>10</v>
@@ -6230,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D157" s="1">
         <v>7</v>
@@ -6245,7 +6219,7 @@
         <v>21</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>10</v>
@@ -6259,7 +6233,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D158" s="1">
         <v>6</v>
@@ -6274,7 +6248,7 @@
         <v>19</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>10</v>
@@ -6288,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D159" s="1">
         <v>7</v>
@@ -6303,10 +6277,7 @@
         <v>19</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>139</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6317,7 +6288,7 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1">
         <v>7</v>
@@ -6332,7 +6303,7 @@
         <v>24</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>10</v>
@@ -6346,7 +6317,7 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -6361,7 +6332,7 @@
         <v>18</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>10</v>
@@ -6375,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D162" s="1">
         <v>6</v>
@@ -6390,7 +6361,7 @@
         <v>21</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>10</v>
@@ -6404,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D163" s="1">
         <v>7</v>
@@ -6416,7 +6387,7 @@
         <v>31</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>13</v>
@@ -6430,7 +6401,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D164" s="1">
         <v>6</v>
@@ -6445,7 +6416,7 @@
         <v>48</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>10</v>
@@ -6459,7 +6430,7 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D165" s="1">
         <v>6</v>
@@ -6474,7 +6445,7 @@
         <v>22</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>10</v>
@@ -6488,7 +6459,7 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D166" s="1">
         <v>7</v>
@@ -6503,7 +6474,7 @@
         <v>56</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>10</v>
@@ -6517,7 +6488,7 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D167" s="1">
         <v>6</v>
@@ -6532,10 +6503,10 @@
         <v>18</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>49</v>
+        <v>428</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6546,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D168" s="1">
         <v>7</v>
@@ -6561,7 +6532,7 @@
         <v>30</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>10</v>
@@ -6575,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D169" s="1">
         <v>5</v>
@@ -6590,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>10</v>
@@ -6604,7 +6575,7 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D170" s="1">
         <v>6</v>
@@ -6619,7 +6590,7 @@
         <v>20</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>21</v>
@@ -6633,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D171" s="1">
         <v>6</v>
@@ -6648,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>10</v>
@@ -6662,7 +6633,7 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -6677,7 +6648,7 @@
         <v>65</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>10</v>
@@ -6691,7 +6662,7 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D173" s="1">
         <v>5</v>
@@ -6706,10 +6677,10 @@
         <v>40</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>115</v>
+        <v>428</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6720,7 +6691,7 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D174" s="1">
         <v>4</v>
@@ -6735,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>10</v>
@@ -6749,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D175" s="1">
         <v>6</v>
@@ -6764,7 +6735,7 @@
         <v>23</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>15</v>
@@ -6778,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D176" s="1">
         <v>7</v>
@@ -6793,7 +6764,7 @@
         <v>22</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>10</v>
@@ -6807,7 +6778,7 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D177" s="1">
         <v>7</v>
@@ -6822,7 +6793,7 @@
         <v>24</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>15</v>
@@ -6836,7 +6807,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D178" s="1">
         <v>7</v>
@@ -6851,7 +6822,7 @@
         <v>27</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>10</v>
@@ -6865,7 +6836,7 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -6880,7 +6851,7 @@
         <v>38</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>10</v>
@@ -6894,7 +6865,7 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D180" s="1">
         <v>5</v>
@@ -6909,7 +6880,7 @@
         <v>41</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>10</v>
@@ -6923,7 +6894,7 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D181" s="1">
         <v>7</v>
@@ -6938,7 +6909,7 @@
         <v>42</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>10</v>
@@ -6952,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D182" s="1">
         <v>5</v>
@@ -6967,7 +6938,7 @@
         <v>26</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>21</v>
@@ -6981,7 +6952,7 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D183" s="1">
         <v>4</v>
@@ -6996,7 +6967,7 @@
         <v>21</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>10</v>
@@ -7010,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D184" s="1">
         <v>6</v>
@@ -7025,7 +6996,7 @@
         <v>23</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>10</v>
@@ -7039,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D185" s="1">
         <v>6</v>
@@ -7054,7 +7025,7 @@
         <v>41</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>10</v>
@@ -7068,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -7083,7 +7054,7 @@
         <v>27</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>10</v>
@@ -7097,7 +7068,7 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D187" s="1">
         <v>7</v>
@@ -7112,7 +7083,7 @@
         <v>19</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>10</v>
@@ -7126,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -7141,7 +7112,7 @@
         <v>40</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>10</v>
@@ -7155,7 +7126,7 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D189" s="1">
         <v>7</v>
@@ -7170,7 +7141,7 @@
         <v>21</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>15</v>
@@ -7184,7 +7155,7 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D190" s="1">
         <v>6</v>
@@ -7199,7 +7170,7 @@
         <v>24</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>10</v>
@@ -7213,7 +7184,7 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -7228,10 +7199,7 @@
         <v>18</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>175</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -7242,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D192" s="1">
         <v>5</v>
@@ -7257,7 +7225,7 @@
         <v>20</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>10</v>
@@ -7271,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D193" s="1">
         <v>6</v>
@@ -7286,7 +7254,7 @@
         <v>52</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>10</v>
@@ -7300,7 +7268,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D194" s="1">
         <v>4</v>
@@ -7315,7 +7283,7 @@
         <v>22</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>10</v>
@@ -7329,7 +7297,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D195" s="1">
         <v>5</v>
@@ -7344,7 +7312,7 @@
         <v>71</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>10</v>
@@ -7358,7 +7326,7 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D196" s="1">
         <v>7</v>
@@ -7373,7 +7341,7 @@
         <v>24</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>10</v>
@@ -7387,7 +7355,7 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D197" s="1">
         <v>6</v>
@@ -7402,7 +7370,7 @@
         <v>25</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>10</v>
@@ -7416,7 +7384,7 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D198" s="1">
         <v>3</v>
@@ -7431,10 +7399,10 @@
         <v>25</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>115</v>
+        <v>428</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7445,7 +7413,7 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>9</v>
@@ -7462,7 +7430,7 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D200" s="1">
         <v>6</v>
@@ -7477,7 +7445,7 @@
         <v>46</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>10</v>
@@ -7491,7 +7459,7 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D201" s="1">
         <v>7</v>
@@ -7506,7 +7474,7 @@
         <v>30</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>10</v>
@@ -7520,7 +7488,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D202" s="1">
         <v>7</v>
@@ -7535,7 +7503,7 @@
         <v>29</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>10</v>
@@ -7549,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D203" s="1">
         <v>6</v>
@@ -7564,7 +7532,7 @@
         <v>28</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>10</v>
@@ -7578,7 +7546,7 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D204" s="1">
         <v>4</v>
@@ -7593,7 +7561,7 @@
         <v>32</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>10</v>
@@ -7607,7 +7575,7 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D205" s="1">
         <v>6</v>
@@ -7622,7 +7590,7 @@
         <v>23</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>15</v>
@@ -7636,7 +7604,7 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D206" s="1">
         <v>7</v>
@@ -7651,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>15</v>
@@ -7665,7 +7633,7 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D207" s="1">
         <v>5</v>
@@ -7680,7 +7648,7 @@
         <v>27</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>10</v>
@@ -7694,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D208" s="1">
         <v>5</v>
@@ -7709,7 +7677,7 @@
         <v>32</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>10</v>
@@ -7723,7 +7691,7 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D209" s="1">
         <v>7</v>
@@ -7738,7 +7706,7 @@
         <v>39</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>13</v>
@@ -7752,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D210" s="1">
         <v>3</v>
@@ -7767,7 +7735,7 @@
         <v>36</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>13</v>
@@ -7781,7 +7749,7 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D211" s="1">
         <v>4</v>
@@ -7796,7 +7764,7 @@
         <v>26</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>10</v>
@@ -7810,7 +7778,7 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D212" s="1">
         <v>3</v>
@@ -7822,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>10</v>
@@ -7833,10 +7801,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C213" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D213" s="1">
         <v>6</v>
@@ -7851,7 +7819,7 @@
         <v>26</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>13</v>
@@ -7862,10 +7830,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D214" s="1">
         <v>4</v>
@@ -7880,7 +7848,7 @@
         <v>38</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>10</v>
@@ -7891,10 +7859,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C215" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D215" s="1">
         <v>6</v>
@@ -7909,7 +7877,7 @@
         <v>18</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>10</v>
@@ -7920,10 +7888,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C216" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D216" s="1">
         <v>5</v>
@@ -7938,7 +7906,7 @@
         <v>19</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>10</v>
@@ -7949,10 +7917,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C217" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D217" s="1">
         <v>6</v>
@@ -7967,7 +7935,7 @@
         <v>25</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>15</v>
@@ -7978,10 +7946,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D218" s="1">
         <v>7</v>
@@ -7996,7 +7964,7 @@
         <v>22</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>10</v>
@@ -8007,10 +7975,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D219" s="1">
         <v>7</v>
@@ -8025,7 +7993,7 @@
         <v>21</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>21</v>
@@ -8036,10 +8004,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
         <v>233</v>
-      </c>
-      <c r="C220" t="s">
-        <v>241</v>
       </c>
       <c r="D220" s="1">
         <v>6</v>
@@ -8054,7 +8022,7 @@
         <v>24</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>21</v>
@@ -8065,10 +8033,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D221" s="1">
         <v>6</v>
@@ -8083,7 +8051,7 @@
         <v>21</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>10</v>
@@ -8094,10 +8062,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D222" s="1">
         <v>5</v>
@@ -8112,7 +8080,7 @@
         <v>25</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>10</v>
@@ -8123,10 +8091,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D223" s="1">
         <v>6</v>
@@ -8141,7 +8109,7 @@
         <v>18</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>15</v>
@@ -8152,10 +8120,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D224" s="1">
         <v>6</v>
@@ -8170,10 +8138,7 @@
         <v>29</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>175</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -8181,10 +8146,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D225" s="1">
         <v>7</v>
@@ -8199,7 +8164,7 @@
         <v>19</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>10</v>
@@ -8210,10 +8175,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D226" s="1">
         <v>6</v>
@@ -8228,7 +8193,7 @@
         <v>24</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>21</v>
@@ -8239,10 +8204,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D227" s="1">
         <v>6</v>
@@ -8257,7 +8222,7 @@
         <v>22</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>10</v>
@@ -8268,10 +8233,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C228" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D228" s="1">
         <v>5</v>
@@ -8286,7 +8251,7 @@
         <v>22</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>15</v>
@@ -8297,10 +8262,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D229" s="1">
         <v>6</v>
@@ -8315,7 +8280,7 @@
         <v>22</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>15</v>
@@ -8326,10 +8291,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D230" s="1">
         <v>4</v>
@@ -8344,7 +8309,7 @@
         <v>19</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>10</v>
@@ -8355,10 +8320,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D231" s="1">
         <v>4</v>
@@ -8373,7 +8338,7 @@
         <v>24</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>10</v>
@@ -8384,10 +8349,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C232" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D232" s="1">
         <v>6</v>
@@ -8402,7 +8367,7 @@
         <v>23</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>10</v>
@@ -8413,10 +8378,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C233" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D233" s="1">
         <v>6</v>
@@ -8431,7 +8396,7 @@
         <v>20</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>15</v>
@@ -8442,10 +8407,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C234" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D234" s="1">
         <v>5</v>
@@ -8460,7 +8425,7 @@
         <v>22</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>10</v>
@@ -8471,10 +8436,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C235" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D235" s="1">
         <v>5</v>
@@ -8489,7 +8454,7 @@
         <v>35</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>10</v>
@@ -8500,10 +8465,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C236" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D236" s="1">
         <v>7</v>
@@ -8518,7 +8483,7 @@
         <v>67</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>10</v>
@@ -8529,10 +8494,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C237" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D237" s="1">
         <v>7</v>
@@ -8547,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>21</v>
@@ -8558,10 +8523,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C238" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D238" s="1">
         <v>6</v>
@@ -8576,7 +8541,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>10</v>
@@ -8587,10 +8552,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C239" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D239" s="1">
         <v>5</v>
@@ -8605,7 +8570,7 @@
         <v>50</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>10</v>
@@ -8616,10 +8581,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C240" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D240" s="1">
         <v>4</v>
@@ -8634,7 +8599,7 @@
         <v>26</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>10</v>
@@ -8645,10 +8610,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C241" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D241" s="1">
         <v>6</v>
@@ -8663,7 +8628,7 @@
         <v>37</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>10</v>
@@ -8674,10 +8639,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C242" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D242" s="1">
         <v>7</v>
@@ -8692,7 +8657,7 @@
         <v>49</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>10</v>
@@ -8703,10 +8668,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C243" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D243" s="1">
         <v>6</v>
@@ -8721,7 +8686,7 @@
         <v>20</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>15</v>
@@ -8732,10 +8697,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C244" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D244" s="1">
         <v>2</v>
@@ -8750,7 +8715,7 @@
         <v>35</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>10</v>
@@ -8761,10 +8726,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C245" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D245" s="1">
         <v>4</v>
@@ -8779,7 +8744,7 @@
         <v>61</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>10</v>
@@ -8790,10 +8755,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C246" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -8808,7 +8773,7 @@
         <v>29</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>13</v>
@@ -8819,10 +8784,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C247" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D247" s="1">
         <v>6</v>
@@ -8837,7 +8802,7 @@
         <v>31</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>15</v>
@@ -8848,10 +8813,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C248" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D248" s="1">
         <v>7</v>
@@ -8866,7 +8831,7 @@
         <v>19</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>21</v>
@@ -8877,10 +8842,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C249" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D249" s="1">
         <v>6</v>
@@ -8895,7 +8860,7 @@
         <v>28</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>10</v>
@@ -8906,10 +8871,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C250" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D250" s="1">
         <v>3</v>
@@ -8924,7 +8889,7 @@
         <v>32</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>10</v>
@@ -8935,10 +8900,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C251" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D251" s="1">
         <v>6</v>
@@ -8953,7 +8918,7 @@
         <v>30</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>10</v>
@@ -8964,10 +8929,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C252" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D252" s="1">
         <v>7</v>
@@ -8982,7 +8947,7 @@
         <v>49</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>15</v>
@@ -8993,10 +8958,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C253" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D253" s="1">
         <v>3</v>
@@ -9011,7 +8976,7 @@
         <v>60</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>10</v>
@@ -9022,10 +8987,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C254" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D254" s="1">
         <v>7</v>
@@ -9040,10 +9005,10 @@
         <v>50</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>74</v>
+        <v>429</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -9051,10 +9016,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C255" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D255" s="1">
         <v>4</v>
@@ -9069,7 +9034,7 @@
         <v>18</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>21</v>
@@ -9080,10 +9045,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C256" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D256" s="1">
         <v>7</v>
@@ -9098,7 +9063,7 @@
         <v>46</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>13</v>
@@ -9109,10 +9074,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C257" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D257" s="1">
         <v>5</v>
@@ -9127,7 +9092,7 @@
         <v>23</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>13</v>
@@ -9138,10 +9103,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C258" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -9156,7 +9121,7 @@
         <v>21</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>15</v>
@@ -9167,10 +9132,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C259" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D259" s="1">
         <v>6</v>
@@ -9185,7 +9150,7 @@
         <v>31</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>13</v>
@@ -9196,10 +9161,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C260" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D260" s="1">
         <v>7</v>
@@ -9214,7 +9179,7 @@
         <v>47</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>10</v>
@@ -9225,10 +9190,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C261" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D261" s="1">
         <v>6</v>
@@ -9243,7 +9208,7 @@
         <v>50</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>10</v>
@@ -9254,10 +9219,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C262" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D262" s="1">
         <v>7</v>
@@ -9272,7 +9237,7 @@
         <v>66</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>10</v>
@@ -9283,10 +9248,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C263" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D263" s="1">
         <v>3</v>
@@ -9301,7 +9266,7 @@
         <v>32</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>10</v>
@@ -9312,10 +9277,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C264" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D264" s="1">
         <v>6</v>
@@ -9330,7 +9295,7 @@
         <v>31</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>13</v>
@@ -9341,10 +9306,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C265" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D265" s="1">
         <v>7</v>
@@ -9359,7 +9324,7 @@
         <v>39</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>10</v>
@@ -9370,10 +9335,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C266" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
@@ -9388,10 +9353,7 @@
         <v>61</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9399,10 +9361,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C267" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D267" s="1">
         <v>7</v>
@@ -9417,7 +9379,7 @@
         <v>32</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>10</v>
@@ -9428,10 +9390,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C268" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D268" s="1">
         <v>3</v>
@@ -9446,7 +9408,7 @@
         <v>62</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>10</v>
@@ -9457,10 +9419,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C269" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D269" s="1">
         <v>7</v>
@@ -9475,7 +9437,7 @@
         <v>38</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>13</v>
@@ -9486,10 +9448,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C270" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -9504,7 +9466,7 @@
         <v>23</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>10</v>
@@ -9515,10 +9477,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C271" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D271" s="1">
         <v>5</v>
@@ -9533,7 +9495,7 @@
         <v>27</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>13</v>
@@ -9544,10 +9506,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C272" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D272" s="1">
         <v>6</v>
@@ -9562,7 +9524,7 @@
         <v>27</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>13</v>
@@ -9573,10 +9535,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C273" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D273" s="1">
         <v>5</v>
@@ -9591,7 +9553,7 @@
         <v>25</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>10</v>
@@ -9602,10 +9564,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C274" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D274" s="1">
         <v>6</v>
@@ -9620,7 +9582,7 @@
         <v>39</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>10</v>
@@ -9631,10 +9593,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C275" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D275" s="1">
         <v>6</v>
@@ -9649,7 +9611,7 @@
         <v>46</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>21</v>
@@ -9660,10 +9622,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C276" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D276" s="1">
         <v>7</v>
@@ -9678,7 +9640,7 @@
         <v>29</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>13</v>
@@ -9689,10 +9651,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C277" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D277" s="1">
         <v>7</v>
@@ -9707,7 +9669,7 @@
         <v>40</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>10</v>
@@ -9718,10 +9680,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C278" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D278" s="1">
         <v>2</v>
@@ -9736,7 +9698,7 @@
         <v>29</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>13</v>
@@ -9747,10 +9709,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C279" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D279" s="1">
         <v>6</v>
@@ -9765,10 +9727,7 @@
         <v>62</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -9776,10 +9735,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C280" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D280" s="1">
         <v>1</v>
@@ -9794,7 +9753,7 @@
         <v>19</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>13</v>
@@ -9805,10 +9764,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C281" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D281" s="1">
         <v>3</v>
@@ -9823,7 +9782,7 @@
         <v>35</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>10</v>
@@ -9834,10 +9793,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C282" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D282" s="1">
         <v>7</v>
@@ -9852,7 +9811,7 @@
         <v>22</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>10</v>
@@ -9863,10 +9822,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C283" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D283" s="1">
         <v>6</v>
@@ -9881,7 +9840,7 @@
         <v>46</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>21</v>
@@ -9892,10 +9851,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C284" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D284" s="1">
         <v>7</v>
@@ -9910,7 +9869,7 @@
         <v>32</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>10</v>
@@ -9921,10 +9880,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C285" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D285" s="1">
         <v>7</v>
@@ -9939,10 +9898,10 @@
         <v>30</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I285" s="1" t="s">
-        <v>307</v>
+        <v>429</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -9950,10 +9909,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C286" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
@@ -9965,7 +9924,7 @@
         <v>5</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>10</v>
@@ -9976,10 +9935,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C287" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D287" s="1">
         <v>7</v>
@@ -9994,7 +9953,7 @@
         <v>39</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>10</v>
@@ -10005,10 +9964,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C288" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D288" s="1">
         <v>6</v>
@@ -10023,7 +9982,7 @@
         <v>32</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>10</v>
@@ -10034,10 +9993,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C289" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D289" s="1">
         <v>7</v>
@@ -10052,7 +10011,7 @@
         <v>39</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>10</v>
@@ -10063,10 +10022,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C290" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D290" s="1">
         <v>4</v>
@@ -10081,7 +10040,7 @@
         <v>35</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>10</v>
@@ -10092,10 +10051,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C291" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D291" s="1">
         <v>2</v>
@@ -10110,7 +10069,7 @@
         <v>59</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>10</v>
@@ -10121,10 +10080,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C292" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D292" s="1">
         <v>7</v>
@@ -10139,7 +10098,7 @@
         <v>23</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>15</v>
@@ -10150,10 +10109,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C293" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D293" s="1">
         <v>5</v>
@@ -10168,7 +10127,7 @@
         <v>18</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>15</v>
@@ -10179,10 +10138,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C294" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D294" s="1">
         <v>6</v>
@@ -10197,7 +10156,7 @@
         <v>49</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>10</v>
@@ -10208,10 +10167,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C295" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D295" s="1">
         <v>7</v>
@@ -10226,7 +10185,7 @@
         <v>52</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>10</v>
@@ -10237,10 +10196,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C296" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -10255,7 +10214,7 @@
         <v>32</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I296" s="1" t="s">
         <v>13</v>
@@ -10266,10 +10225,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C297" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D297" s="1">
         <v>5</v>
@@ -10284,7 +10243,7 @@
         <v>31</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>13</v>
@@ -10295,10 +10254,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C298" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D298" s="1">
         <v>6</v>
@@ -10313,7 +10272,7 @@
         <v>39</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>10</v>
@@ -10324,10 +10283,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C299" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D299" s="1">
         <v>6</v>
@@ -10342,7 +10301,7 @@
         <v>27</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>13</v>
@@ -10353,10 +10312,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C300" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D300" s="1">
         <v>4</v>
@@ -10371,7 +10330,7 @@
         <v>30</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>13</v>
@@ -10382,10 +10341,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C301" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D301" s="1">
         <v>7</v>
@@ -10400,7 +10359,7 @@
         <v>30</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>13</v>
@@ -10411,10 +10370,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C302" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D302" s="1">
         <v>6</v>
@@ -10429,7 +10388,7 @@
         <v>30</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>13</v>
@@ -10440,10 +10399,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C303" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D303" s="1">
         <v>5</v>
@@ -10458,7 +10417,7 @@
         <v>45</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>10</v>
@@ -10469,10 +10428,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C304" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D304" s="1">
         <v>5</v>
@@ -10487,7 +10446,7 @@
         <v>23</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>21</v>
@@ -10498,10 +10457,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C305" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D305" s="1">
         <v>6</v>
@@ -10516,7 +10475,7 @@
         <v>22</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>21</v>
@@ -10527,10 +10486,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C306" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D306" s="1">
         <v>4</v>
@@ -10545,10 +10504,10 @@
         <v>18</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>115</v>
+        <v>429</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -10556,10 +10515,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C307" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D307" s="1">
         <v>7</v>
@@ -10574,7 +10533,7 @@
         <v>31</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>13</v>
@@ -10585,10 +10544,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C308" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D308" s="1">
         <v>6</v>
@@ -10603,7 +10562,7 @@
         <v>28</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I308" s="1" t="s">
         <v>10</v>
@@ -10614,10 +10573,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C309" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D309" s="1">
         <v>7</v>
@@ -10632,7 +10591,7 @@
         <v>32</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>10</v>
@@ -10643,10 +10602,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C310" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D310" s="1">
         <v>7</v>
@@ -10661,7 +10620,7 @@
         <v>36</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>10</v>
@@ -10672,10 +10631,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C311" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D311" s="1">
         <v>7</v>
@@ -10690,7 +10649,7 @@
         <v>37</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>21</v>
@@ -10701,10 +10660,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C312" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D312" s="1">
         <v>7</v>
@@ -10719,7 +10678,7 @@
         <v>35</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>10</v>
@@ -10730,10 +10689,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C313" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D313" s="1">
         <v>4</v>
@@ -10748,7 +10707,7 @@
         <v>24</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>10</v>
@@ -10759,10 +10718,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C314" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D314" s="1">
         <v>6</v>
@@ -10777,7 +10736,7 @@
         <v>44</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>10</v>
@@ -10788,10 +10747,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C315" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D315" s="1">
         <v>5</v>
@@ -10806,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I315" s="1" t="s">
         <v>13</v>
@@ -10817,10 +10776,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C316" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D316" s="1">
         <v>5</v>
@@ -10835,7 +10794,7 @@
         <v>21</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>10</v>
@@ -10846,10 +10805,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C317" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D317" s="1">
         <v>5</v>
@@ -10864,7 +10823,7 @@
         <v>29</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>13</v>
@@ -10875,10 +10834,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C318" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D318" s="1">
         <v>6</v>
@@ -10893,7 +10852,7 @@
         <v>32</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>13</v>
@@ -10904,10 +10863,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C319" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D319" s="1">
         <v>5</v>
@@ -10922,7 +10881,7 @@
         <v>23</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>10</v>
@@ -10933,10 +10892,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C320" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D320" s="1">
         <v>7</v>
@@ -10951,7 +10910,7 @@
         <v>43</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>10</v>
@@ -10962,10 +10921,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C321" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D321" s="1">
         <v>6</v>
@@ -10980,7 +10939,7 @@
         <v>32</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>13</v>
@@ -10991,10 +10950,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C322" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D322" s="1">
         <v>5</v>
@@ -11009,7 +10968,7 @@
         <v>30</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>10</v>
@@ -11020,10 +10979,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C323" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D323" s="1">
         <v>7</v>
@@ -11038,7 +10997,7 @@
         <v>37</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>13</v>
@@ -11049,10 +11008,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C324" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D324" s="1">
         <v>6</v>
@@ -11067,7 +11026,7 @@
         <v>30</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>13</v>
@@ -11078,10 +11037,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C325" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D325" s="1">
         <v>3</v>
@@ -11096,7 +11055,7 @@
         <v>27</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>10</v>
@@ -11107,10 +11066,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C326" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D326" s="1">
         <v>5</v>
@@ -11125,7 +11084,7 @@
         <v>33</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>10</v>
@@ -11136,10 +11095,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C327" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D327" s="1">
         <v>3</v>
@@ -11154,7 +11113,7 @@
         <v>30</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>13</v>
@@ -11165,10 +11124,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C328" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D328" s="1">
         <v>6</v>
@@ -11183,7 +11142,7 @@
         <v>30</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>13</v>
@@ -11194,10 +11153,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C329" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D329" s="1">
         <v>7</v>
@@ -11212,7 +11171,7 @@
         <v>26</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>10</v>
@@ -11223,10 +11182,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C330" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D330" s="1">
         <v>6</v>
@@ -11241,7 +11200,7 @@
         <v>37</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>10</v>
@@ -11252,10 +11211,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C331" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D331" s="1">
         <v>7</v>
@@ -11270,7 +11229,7 @@
         <v>30</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>13</v>
@@ -11281,10 +11240,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -11299,7 +11258,7 @@
         <v>30</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>13</v>
@@ -11310,10 +11269,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C333" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D333" s="1">
         <v>5</v>
@@ -11328,10 +11287,7 @@
         <v>51</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I333" s="1" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -11339,10 +11295,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C334" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D334" s="1">
         <v>6</v>
@@ -11357,7 +11313,7 @@
         <v>30</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>13</v>
@@ -11368,10 +11324,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C335" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D335" s="1">
         <v>4</v>
@@ -11386,7 +11342,7 @@
         <v>70</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>10</v>
@@ -11397,10 +11353,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C336" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D336" s="1">
         <v>6</v>
@@ -11415,7 +11371,7 @@
         <v>36</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>13</v>
@@ -11426,10 +11382,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C337" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D337" s="1">
         <v>7</v>
@@ -11444,7 +11400,7 @@
         <v>34</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>10</v>
@@ -11455,10 +11411,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C338" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D338" s="1">
         <v>7</v>
@@ -11473,7 +11429,7 @@
         <v>50</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>29</v>
@@ -11484,10 +11440,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C339" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D339" s="1">
         <v>1</v>
@@ -11502,7 +11458,7 @@
         <v>30</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>13</v>
@@ -11513,10 +11469,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C340" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D340" s="1">
         <v>7</v>
@@ -11531,7 +11487,7 @@
         <v>30</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>10</v>
@@ -11542,10 +11498,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C341" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D341" s="1">
         <v>6</v>
@@ -11560,7 +11516,7 @@
         <v>18</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>15</v>
@@ -11571,10 +11527,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C342" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D342" s="1">
         <v>4</v>
@@ -11589,7 +11545,7 @@
         <v>18</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>10</v>
@@ -11600,10 +11556,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C343" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D343" s="1">
         <v>7</v>
@@ -11618,7 +11574,7 @@
         <v>30</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>10</v>
@@ -11629,10 +11585,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C344" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D344" s="1">
         <v>6</v>
@@ -11647,7 +11603,7 @@
         <v>24</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>10</v>
@@ -11658,10 +11614,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C345" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D345" s="1">
         <v>6</v>
@@ -11676,7 +11632,7 @@
         <v>29</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>10</v>
@@ -11687,10 +11643,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C346" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D346" s="1">
         <v>7</v>
@@ -11705,7 +11661,7 @@
         <v>46</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>10</v>
@@ -11716,10 +11672,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C347" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D347" s="1">
         <v>3</v>
@@ -11734,7 +11690,7 @@
         <v>21</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>10</v>
@@ -11745,10 +11701,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C348" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D348" s="1">
         <v>7</v>
@@ -11763,7 +11719,7 @@
         <v>37</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>10</v>
@@ -11774,10 +11730,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C349" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D349" s="1">
         <v>5</v>
@@ -11792,7 +11748,7 @@
         <v>45</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>10</v>
@@ -11803,10 +11759,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C350" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D350" s="1">
         <v>7</v>
@@ -11821,7 +11777,7 @@
         <v>47</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I350" s="1" t="s">
         <v>10</v>
@@ -11832,10 +11788,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C351" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D351" s="1">
         <v>6</v>
@@ -11850,7 +11806,7 @@
         <v>18</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>10</v>
@@ -11861,10 +11817,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C352" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D352" s="1">
         <v>7</v>
@@ -11879,7 +11835,7 @@
         <v>26</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>21</v>
@@ -11890,10 +11846,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C353" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D353" s="1">
         <v>4</v>
@@ -11908,7 +11864,7 @@
         <v>44</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>10</v>
@@ -11919,10 +11875,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C354" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D354" s="1">
         <v>5</v>
@@ -11937,7 +11893,7 @@
         <v>27</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I354" s="1" t="s">
         <v>10</v>
@@ -11948,10 +11904,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C355" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D355" s="1">
         <v>7</v>
@@ -11966,7 +11922,7 @@
         <v>32</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I355" s="1" t="s">
         <v>10</v>
@@ -11977,10 +11933,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C356" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D356" s="1">
         <v>7</v>
@@ -11995,10 +11951,7 @@
         <v>40</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>175</v>
+        <v>428</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -12006,10 +11959,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C357" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D357" s="1">
         <v>7</v>
@@ -12024,7 +11977,7 @@
         <v>24</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I357" s="1" t="s">
         <v>10</v>
@@ -12035,10 +11988,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C358" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D358" s="1">
         <v>6</v>
@@ -12053,7 +12006,7 @@
         <v>24</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>10</v>
@@ -12064,10 +12017,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C359" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D359" s="1">
         <v>3</v>
@@ -12082,7 +12035,7 @@
         <v>54</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>10</v>
@@ -12093,10 +12046,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C360" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -12111,7 +12064,7 @@
         <v>18</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>10</v>
@@ -12122,10 +12075,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C361" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D361" s="1">
         <v>5</v>
@@ -12140,7 +12093,7 @@
         <v>20</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>10</v>
@@ -12151,10 +12104,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C362" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D362" s="1">
         <v>6</v>
@@ -12169,7 +12122,7 @@
         <v>50</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I362" s="1" t="s">
         <v>10</v>
@@ -12180,10 +12133,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C363" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D363" s="1">
         <v>6</v>
@@ -12198,7 +12151,7 @@
         <v>53</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>10</v>
@@ -12209,10 +12162,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C364" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D364" s="1">
         <v>5</v>
@@ -12227,7 +12180,7 @@
         <v>58</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I364" s="1" t="s">
         <v>10</v>
@@ -12238,10 +12191,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C365" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D365" s="1">
         <v>4</v>
@@ -12256,7 +12209,7 @@
         <v>55</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>10</v>
@@ -12267,10 +12220,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C366" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D366" s="1">
         <v>6</v>
@@ -12285,7 +12238,7 @@
         <v>33</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>10</v>
@@ -12296,10 +12249,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C367" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D367" s="1">
         <v>5</v>
@@ -12314,7 +12267,7 @@
         <v>45</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>10</v>
@@ -12325,10 +12278,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C368" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D368" s="1">
         <v>6</v>
@@ -12343,7 +12296,7 @@
         <v>19</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>10</v>
@@ -12354,10 +12307,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C369" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D369" s="1">
         <v>6</v>
@@ -12372,7 +12325,7 @@
         <v>31</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>10</v>
@@ -12383,10 +12336,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C370" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D370" s="1">
         <v>7</v>
@@ -12401,7 +12354,7 @@
         <v>38</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>15</v>
@@ -12412,10 +12365,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C371" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D371" s="1">
         <v>7</v>
@@ -12430,7 +12383,7 @@
         <v>22</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I371" s="1" t="s">
         <v>10</v>
@@ -12441,10 +12394,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C372" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D372" s="1">
         <v>5</v>
@@ -12459,7 +12412,7 @@
         <v>65</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I372" s="1" t="s">
         <v>10</v>
@@ -12470,10 +12423,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C373" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D373" s="1">
         <v>5</v>
@@ -12488,7 +12441,7 @@
         <v>24</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I373" s="1" t="s">
         <v>10</v>
@@ -12499,10 +12452,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C374" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D374" s="1">
         <v>5</v>
@@ -12517,7 +12470,7 @@
         <v>37</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I374" s="1" t="s">
         <v>10</v>
@@ -12528,10 +12481,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C375" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D375" s="1">
         <v>7</v>
@@ -12546,7 +12499,7 @@
         <v>43</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I375" s="1" t="s">
         <v>21</v>
@@ -12557,10 +12510,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C376" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D376" s="1">
         <v>6</v>
@@ -12575,7 +12528,7 @@
         <v>21</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I376" s="1" t="s">
         <v>10</v>
@@ -12586,10 +12539,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C377" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D377" s="1">
         <v>6</v>
@@ -12604,7 +12557,7 @@
         <v>29</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I377" s="1" t="s">
         <v>10</v>
@@ -12615,10 +12568,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C378" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D378" s="1">
         <v>6</v>
@@ -12633,10 +12586,10 @@
         <v>42</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I378" s="1" t="s">
-        <v>49</v>
+        <v>428</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -12644,10 +12597,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C379" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D379" s="1">
         <v>7</v>
@@ -12662,7 +12615,7 @@
         <v>34</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>13</v>
@@ -12673,10 +12626,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C380" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D380" s="1">
         <v>7</v>
@@ -12691,7 +12644,7 @@
         <v>19</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I380" s="1" t="s">
         <v>15</v>
@@ -12702,10 +12655,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C381" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D381" s="1">
         <v>7</v>
@@ -12720,7 +12673,7 @@
         <v>26</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>10</v>
@@ -12731,10 +12684,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C382" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D382" s="1">
         <v>7</v>
@@ -12749,7 +12702,7 @@
         <v>23</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I382" s="1" t="s">
         <v>10</v>
@@ -12760,10 +12713,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C383" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D383" s="1">
         <v>6</v>
@@ -12778,7 +12731,7 @@
         <v>26</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>10</v>
@@ -12789,10 +12742,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C384" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D384" s="1">
         <v>6</v>
@@ -12807,7 +12760,7 @@
         <v>21</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I384" s="1" t="s">
         <v>10</v>
@@ -12818,10 +12771,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C385" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D385" s="1">
         <v>2</v>
@@ -12836,10 +12789,10 @@
         <v>23</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I385" s="1" t="s">
-        <v>115</v>
+        <v>428</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -12847,10 +12800,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C386" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D386" s="1">
         <v>3</v>
@@ -12865,7 +12818,7 @@
         <v>18</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>10</v>
@@ -12876,10 +12829,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C387" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D387" s="1">
         <v>6</v>
@@ -12894,7 +12847,7 @@
         <v>19</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I387" s="1" t="s">
         <v>21</v>
@@ -12905,10 +12858,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C388" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D388" s="1">
         <v>7</v>
@@ -12923,7 +12876,7 @@
         <v>21</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>21</v>
@@ -12934,10 +12887,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C389" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D389" s="1">
         <v>2</v>
@@ -12952,10 +12905,7 @@
         <v>38</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I389" s="1" t="s">
-        <v>175</v>
+        <v>428</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -12963,10 +12913,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C390" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D390" s="1">
         <v>5</v>
@@ -12981,7 +12931,7 @@
         <v>27</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I390" s="1" t="s">
         <v>10</v>
@@ -12992,10 +12942,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C391" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D391" s="1">
         <v>5</v>
@@ -13010,7 +12960,7 @@
         <v>21</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I391" s="1" t="s">
         <v>10</v>
@@ -13021,10 +12971,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C392" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D392" s="1">
         <v>6</v>
@@ -13039,7 +12989,7 @@
         <v>21</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I392" s="1" t="s">
         <v>10</v>
@@ -13050,10 +13000,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C393" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D393" s="1">
         <v>3</v>
@@ -13068,7 +13018,7 @@
         <v>18</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I393" s="1" t="s">
         <v>15</v>
@@ -13079,10 +13029,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C394" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D394" s="1">
         <v>7</v>
@@ -13097,7 +13047,7 @@
         <v>39</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I394" s="1" t="s">
         <v>10</v>
@@ -13108,10 +13058,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C395" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D395" s="1">
         <v>5</v>
@@ -13126,7 +13076,7 @@
         <v>24</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>10</v>
@@ -13137,10 +13087,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C396" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -13155,7 +13105,7 @@
         <v>29</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I396" s="1" t="s">
         <v>10</v>
@@ -13166,10 +13116,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C397" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D397" s="1">
         <v>7</v>
@@ -13184,7 +13134,7 @@
         <v>21</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I397" s="1" t="s">
         <v>10</v>
@@ -13195,10 +13145,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C398" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D398" s="1">
         <v>6</v>
@@ -13213,7 +13163,7 @@
         <v>19</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I398" s="1" t="s">
         <v>10</v>
@@ -13224,10 +13174,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C399" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D399" s="1">
         <v>5</v>
@@ -13242,10 +13192,10 @@
         <v>21</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I399" s="1" t="s">
-        <v>74</v>
+        <v>428</v>
+      </c>
+      <c r="I399" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -13253,10 +13203,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C400" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D400" s="1">
         <v>6</v>
@@ -13271,7 +13221,7 @@
         <v>20</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>10</v>
@@ -13282,10 +13232,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C401" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D401" s="1">
         <v>4</v>
@@ -13300,7 +13250,7 @@
         <v>41</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I401" s="1" t="s">
         <v>10</v>
@@ -13311,10 +13261,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C402" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D402" s="1">
         <v>6</v>
@@ -13329,7 +13279,7 @@
         <v>33</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I402" s="1" t="s">
         <v>10</v>
@@ -13340,10 +13290,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C403" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D403" s="1">
         <v>4</v>
@@ -13358,7 +13308,7 @@
         <v>21</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>15</v>
@@ -13369,10 +13319,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C404" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D404" s="1">
         <v>6</v>
@@ -13387,10 +13337,10 @@
         <v>35</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I404" s="1" t="s">
-        <v>74</v>
+        <v>428</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -13398,10 +13348,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C405" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D405" s="1">
         <v>7</v>
@@ -13416,7 +13366,7 @@
         <v>19</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I405" s="1" t="s">
         <v>21</v>
@@ -13427,10 +13377,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C406" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D406" s="1">
         <v>6</v>
@@ -13445,10 +13395,10 @@
         <v>32</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I406" s="1" t="s">
-        <v>74</v>
+        <v>428</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -13456,10 +13406,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C407" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D407" s="1">
         <v>7</v>
@@ -13474,7 +13424,7 @@
         <v>24</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>10</v>
@@ -13485,10 +13435,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C408" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D408" s="1">
         <v>7</v>
@@ -13503,7 +13453,7 @@
         <v>35</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I408" s="1" t="s">
         <v>13</v>
@@ -13514,10 +13464,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C409" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D409" s="1">
         <v>6</v>
@@ -13532,7 +13482,7 @@
         <v>37</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I409" s="1" t="s">
         <v>10</v>
@@ -13543,10 +13493,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C410" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D410" s="1">
         <v>6</v>
@@ -13561,7 +13511,7 @@
         <v>18</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>10</v>
@@ -13572,10 +13522,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C411" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D411" s="1">
         <v>3</v>
@@ -13590,7 +13540,7 @@
         <v>38</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>10</v>
@@ -13601,10 +13551,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C412" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D412" s="1">
         <v>3</v>
@@ -13619,13 +13569,14 @@
         <v>29</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I412" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I412" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
